--- a/src/test/resources/TestDriver/TestSBO/ReferenceData/RefData_SBO_EVENTS.xlsx
+++ b/src/test/resources/TestDriver/TestSBO/ReferenceData/RefData_SBO_EVENTS.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO\ReferenceData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0FEC8A-85EE-40E5-BFFA-330146AA418D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Transactions" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Attributes" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Aggregation" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="AccountType" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="SubledgerMapping" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="ChartOfAccount" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Transactions" sheetId="1" r:id="rId1"/>
+    <sheet name="Attributes" sheetId="2" r:id="rId2"/>
+    <sheet name="Aggregation" sheetId="3" r:id="rId3"/>
+    <sheet name="AccountType" sheetId="4" r:id="rId4"/>
+    <sheet name="SubledgerMapping" sheetId="5" r:id="rId5"/>
+    <sheet name="ChartOfAccount" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,13 +29,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,14 +43,14 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">[Threaded comment]
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Controllable from UI as well, Settings&gt;Journal Fields, All booking attributes are reclassable</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +58,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">[Threaded comment]
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Controllable from UI as well, Settings&gt;Journal Fields, All booking attributes are reclassable</t>
@@ -67,233 +72,230 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replayable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reportable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment_UPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment_Interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servicing_Interest_Accrual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase_Interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase_UPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest_Adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Principal_Adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttributeName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reclassable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versionable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nullable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOAN_AMOUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCRUAL_METHOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTEREST_RATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOAN_TERM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPTURE_DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATURITY_DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRINCIPAL_BALANCE_CONSUMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOAN_STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MERCHANT_INDUSTRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATUS_AS_OF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTEREST_RECEIVABLE_CONSUMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEXT_PAYMENT_DUE_DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAST_PAYMENT_MADE_DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transaction Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metric Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unpaid_Principal_Balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accrued_Interest_Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountSubType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance Sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash Clearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income Statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accrued Interest Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TransactionName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EntryType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accountSubType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSITIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sporting Goods and Outdoors</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Replayable</t>
+  </si>
+  <si>
+    <t>Reportable</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Payment_UPB</t>
+  </si>
+  <si>
+    <t>Payment_Interest</t>
+  </si>
+  <si>
+    <t>Servicing_Interest_Accrual</t>
+  </si>
+  <si>
+    <t>Purchase_Interest</t>
+  </si>
+  <si>
+    <t>Purchase_UPB</t>
+  </si>
+  <si>
+    <t>Remit</t>
+  </si>
+  <si>
+    <t>Interest_Adjustment</t>
+  </si>
+  <si>
+    <t>Principal_Adjustment</t>
+  </si>
+  <si>
+    <t>UserField</t>
+  </si>
+  <si>
+    <t>AttributeName</t>
+  </si>
+  <si>
+    <t>Reclassable</t>
+  </si>
+  <si>
+    <t>Versionable</t>
+  </si>
+  <si>
+    <t>dataType</t>
+  </si>
+  <si>
+    <t>Nullable</t>
+  </si>
+  <si>
+    <t>UserField1</t>
+  </si>
+  <si>
+    <t>LOAN_AMOUNT</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>UserField2</t>
+  </si>
+  <si>
+    <t>ACCRUAL_METHOD</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>UserField3</t>
+  </si>
+  <si>
+    <t>INTEREST_RATE</t>
+  </si>
+  <si>
+    <t>UserField4</t>
+  </si>
+  <si>
+    <t>LOAN_TERM</t>
+  </si>
+  <si>
+    <t>UserField5</t>
+  </si>
+  <si>
+    <t>CAPTURE_DATE</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>UserField6</t>
+  </si>
+  <si>
+    <t>MATURITY_DATE</t>
+  </si>
+  <si>
+    <t>UserField7</t>
+  </si>
+  <si>
+    <t>PRINCIPAL_BALANCE_CONSUMER</t>
+  </si>
+  <si>
+    <t>UserField8</t>
+  </si>
+  <si>
+    <t>LOAN_STATUS</t>
+  </si>
+  <si>
+    <t>UserField9</t>
+  </si>
+  <si>
+    <t>MERCHANT_INDUSTRY</t>
+  </si>
+  <si>
+    <t>UserField10</t>
+  </si>
+  <si>
+    <t>STATUS_AS_OF</t>
+  </si>
+  <si>
+    <t>UserField11</t>
+  </si>
+  <si>
+    <t>INTEREST_RECEIVABLE_CONSUMER</t>
+  </si>
+  <si>
+    <t>UserField12</t>
+  </si>
+  <si>
+    <t>NEXT_PAYMENT_DUE_DATE</t>
+  </si>
+  <si>
+    <t>UserField13</t>
+  </si>
+  <si>
+    <t>LAST_PAYMENT_MADE_DATE</t>
+  </si>
+  <si>
+    <t>Transaction Name</t>
+  </si>
+  <si>
+    <t>Metric Name</t>
+  </si>
+  <si>
+    <t>Unpaid_Principal_Balance</t>
+  </si>
+  <si>
+    <t>Accrued_Interest_Receivable</t>
+  </si>
+  <si>
+    <t>FVO</t>
+  </si>
+  <si>
+    <t>AccountSubType</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>Cash Receivable</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Cash Clearing</t>
+  </si>
+  <si>
+    <t>Clearing</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t>Accrued Interest Receivable</t>
+  </si>
+  <si>
+    <t>TransactionName</t>
+  </si>
+  <si>
+    <t>SIGN</t>
+  </si>
+  <si>
+    <t>EntryType</t>
+  </si>
+  <si>
+    <t>accountSubType</t>
+  </si>
+  <si>
+    <t>POSITIVE</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>Sporting Goods and Outdoors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,22 +304,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -328,6 +315,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -345,185 +339,162 @@
     </fill>
   </fills>
   <borders count="6">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -555,7 +526,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -579,7 +550,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -639,36 +610,37 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.57"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,152 +654,146 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="33.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="10.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="8.71"/>
+    <col min="1" max="1" width="27.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="17" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="3"/>
+    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -847,17 +813,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -867,17 +833,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -887,17 +853,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -907,17 +873,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="n">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -927,17 +893,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -947,17 +913,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -967,17 +933,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="n">
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -987,17 +953,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="n">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1007,17 +973,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="n">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1027,17 +993,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="n">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1047,17 +1013,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="n">
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1067,17 +1033,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="n">
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1087,17 +1053,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="n">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1108,37 +1074,31 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="67.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="24.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="3" width="11.57"/>
+    <col min="1" max="1" width="67.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
@@ -1146,7 +1106,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1170,7 +1130,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1178,7 +1138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1146,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1210,7 +1170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -1219,10 +1179,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
@@ -1230,25 +1189,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="39.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="3" width="11.57"/>
+    <col min="1" max="1" width="39.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
@@ -1256,7 +1214,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
@@ -1264,7 +1222,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
@@ -1272,7 +1230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
@@ -1280,7 +1238,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
@@ -1288,7 +1246,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
@@ -1297,10 +1255,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
@@ -1308,27 +1265,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="67.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="44.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="3" width="11.57"/>
+    <col min="1" max="1" width="67.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3"/>
+    <col min="3" max="3" width="10.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>63</v>
       </c>
@@ -1342,7 +1298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1312,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1370,7 +1326,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1384,7 +1340,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1398,7 +1354,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1412,7 +1368,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1426,7 +1382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1440,7 +1396,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1454,7 +1410,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1424,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1482,7 +1438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1510,7 +1466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1524,7 +1480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1539,10 +1495,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
@@ -1550,27 +1505,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="43.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="39.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="13.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="3" width="11.57"/>
+    <col min="1" max="1" width="43.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>70</v>
       </c>
@@ -1584,11 +1538,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="9">
         <v>1000</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1598,11 +1552,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="9">
         <v>2000</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1612,11 +1566,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="9">
         <v>3000</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1626,11 +1580,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="9">
         <v>4000</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1640,11 +1594,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="9">
         <v>5000</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1655,10 +1609,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
